--- a/학습자료/단답형/국어_복습_복합어.xlsx
+++ b/학습자료/단답형/국어_복습_복합어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3007,6 +3007,534 @@
         </is>
       </c>
     </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>손쉽다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>시름없다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>남다르다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>기와집(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>치솟다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>고무신(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>놀이(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>마침내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>봄내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>여름내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>저녁내(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>들장미(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>들국화(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>끄덕이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>망설이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>반짝이다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>한껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>힘껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>눈치껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>정성껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>성의껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>지금껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>아직껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>여태껏(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4일차</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>복합어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_복합어.xlsx
+++ b/학습자료/단답형/국어_복습_복합어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -512,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -534,11 +514,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -556,11 +531,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -578,11 +548,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -600,11 +565,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -622,11 +582,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -644,11 +599,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -666,11 +616,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -688,11 +633,6 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -710,11 +650,6 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -732,11 +667,6 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -754,11 +684,6 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -776,11 +701,6 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -798,11 +718,6 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -820,11 +735,6 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -842,11 +752,6 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -864,11 +769,6 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -886,11 +786,6 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -908,11 +803,6 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -930,11 +820,6 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -952,11 +837,6 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -974,11 +854,6 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -996,11 +871,6 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1018,11 +888,6 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1040,11 +905,6 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1062,11 +922,6 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1084,11 +939,6 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1106,11 +956,6 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1128,11 +973,6 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1150,11 +990,6 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1172,11 +1007,6 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1194,11 +1024,6 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1216,11 +1041,6 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1238,11 +1058,6 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1260,11 +1075,6 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1282,11 +1092,6 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1304,11 +1109,6 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1326,11 +1126,6 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1348,11 +1143,6 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1370,11 +1160,6 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1392,11 +1177,6 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1414,11 +1194,6 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1436,11 +1211,6 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1458,11 +1228,6 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1480,11 +1245,6 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1502,11 +1262,6 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1524,11 +1279,6 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1546,11 +1296,6 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1568,11 +1313,6 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1590,11 +1330,6 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1612,11 +1347,6 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1634,11 +1364,6 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1656,11 +1381,6 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1678,11 +1398,6 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1700,11 +1415,6 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1722,11 +1432,6 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1744,11 +1449,6 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1766,11 +1466,6 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1788,11 +1483,6 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1810,11 +1500,6 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1832,11 +1517,6 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1854,11 +1534,6 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1876,11 +1551,6 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1898,11 +1568,6 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1920,11 +1585,6 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1942,11 +1602,6 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1964,11 +1619,6 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1986,11 +1636,6 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2008,11 +1653,6 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2030,11 +1670,6 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2052,11 +1687,6 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2074,11 +1704,6 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2096,11 +1721,6 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2118,11 +1738,6 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2140,11 +1755,6 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2162,11 +1772,6 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2184,11 +1789,6 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2206,11 +1806,6 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2228,11 +1823,6 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2250,11 +1840,6 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2272,11 +1857,6 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2294,11 +1874,6 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2316,11 +1891,6 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2338,11 +1908,6 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2360,11 +1925,6 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2382,11 +1942,6 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2404,11 +1959,6 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2426,11 +1976,6 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2448,11 +1993,6 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2470,11 +2010,6 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2492,11 +2027,6 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2514,11 +2044,6 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2536,11 +2061,6 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2558,11 +2078,6 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2580,11 +2095,6 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2602,11 +2112,6 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2624,11 +2129,6 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2646,11 +2146,6 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2668,11 +2163,6 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2690,11 +2180,6 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2712,11 +2197,6 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2734,11 +2214,6 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2756,11 +2231,6 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2778,11 +2248,6 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2800,11 +2265,6 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2822,11 +2282,6 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2844,11 +2299,6 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2866,11 +2316,6 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2888,11 +2333,6 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2910,11 +2350,6 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2932,11 +2367,6 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2954,11 +2384,6 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2976,11 +2401,6 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2998,11 +2418,6 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3020,11 +2435,6 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3042,11 +2452,6 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3064,11 +2469,6 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3086,11 +2486,6 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3108,11 +2503,6 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3130,11 +2520,6 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3152,11 +2537,6 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3174,11 +2554,6 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3196,11 +2571,6 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3218,11 +2588,6 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3240,11 +2605,6 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3262,11 +2622,6 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3284,11 +2639,6 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3306,11 +2656,6 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3328,11 +2673,6 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3350,11 +2690,6 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3372,11 +2707,6 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3394,11 +2724,6 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3416,11 +2741,6 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3438,11 +2758,6 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3460,11 +2775,6 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3482,11 +2792,6 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3504,11 +2809,6 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3525,11 +2825,6 @@
         </is>
       </c>
       <c r="C141" t="inlineStr">
-        <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
         <is>
           <t>복합어</t>
         </is>

--- a/학습자료/단답형/국어_복습_복합어.xlsx
+++ b/학습자료/단답형/국어_복습_복합어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
